--- a/Shared/Tests/LoadConfig/LoadConfigSuccessConfig.xlsx
+++ b/Shared/Tests/LoadConfig/LoadConfigSuccessConfig.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\eyash\Documents\UiPath\LazyFramework\Shared\Tests\LoadConfig\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yash.brahmbhatt\Documents\UiPath\LazyFramework\Shared\Tests\LoadConfig\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46F75CDC-BE19-49F5-A38A-8B2A77B9D257}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE6E74E8-81E8-4873-87B7-EB173ADF043F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38510" yWindow="-110" windowWidth="36770" windowHeight="21820" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="1920" windowWidth="20205" windowHeight="11835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Settings" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="17">
   <si>
     <t>Name</t>
   </si>
@@ -49,12 +49,6 @@
     <t>Bucket</t>
   </si>
   <si>
-    <t>LazyFramework</t>
-  </si>
-  <si>
-    <t>IMAP_Server</t>
-  </si>
-  <si>
     <t>ShouldLoad</t>
   </si>
   <si>
@@ -76,28 +70,16 @@
     <t>Testing a local file that should be loaded.</t>
   </si>
   <si>
-    <t>Testing a storage bucket file that should be loaded.</t>
-  </si>
-  <si>
-    <t>LoadConfigTest</t>
-  </si>
-  <si>
-    <t>SysEx_Subject.txt</t>
-  </si>
-  <si>
     <t>LocalFile</t>
   </si>
   <si>
-    <t>BucketFile</t>
-  </si>
-  <si>
-    <t>TestExcelFile.xlsx</t>
-  </si>
-  <si>
     <t>Shared\Tests\LoadConfig\TestExcelFile.xlsx</t>
   </si>
   <si>
     <t>project.json</t>
+  </si>
+  <si>
+    <t>Email</t>
   </si>
 </sst>
 </file>
@@ -417,7 +399,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
@@ -441,13 +423,13 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B2" t="b">
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -482,13 +464,13 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B2" t="b">
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -501,7 +483,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -525,16 +507,13 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="D2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -545,10 +524,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD2CEDF8-DEA9-4AFE-9762-F2C5CB64408E}">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O14" sqref="O14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:XFD3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -579,30 +558,13 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="E2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" t="s">
-        <v>16</v>
-      </c>
-      <c r="E3" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -612,10 +574,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01BF55B3-5C01-4CFD-8ED6-85E0E9143DB2}">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="B57" sqref="B56:B57"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:XFD3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -639,30 +601,13 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="E2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" t="s">
-        <v>16</v>
-      </c>
-      <c r="E3" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
